--- a/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_monte_carlo_-2.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/oilcane/results/oilcane_monte_carlo_-2.xlsx
@@ -1074,7 +1074,7 @@
         <v>1.761387461997503</v>
       </c>
       <c r="AJ4" t="n">
-        <v>13.06768280298939</v>
+        <v>13.06768280482984</v>
       </c>
       <c r="AK4" t="n">
         <v>0</v>
@@ -1083,13 +1083,13 @@
         <v>27.88248100745254</v>
       </c>
       <c r="AM4" t="n">
-        <v>1.750417752224961e-15</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>739.4513623542574</v>
+        <v>739.451362354258</v>
       </c>
       <c r="AO4" t="n">
-        <v>453.1036806158658</v>
+        <v>453.1036806158661</v>
       </c>
       <c r="AP4" t="n">
         <v>1821232.846442415</v>
@@ -1098,10 +1098,10 @@
         <v>-3.992473018854525e-10</v>
       </c>
       <c r="AR4" t="n">
-        <v>2.380261789997083</v>
+        <v>2.380261789997084</v>
       </c>
       <c r="AS4" t="n">
-        <v>4.517141811966964</v>
+        <v>4.517141811966965</v>
       </c>
       <c r="AT4" t="n">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>1.586031060075989</v>
       </c>
       <c r="AJ5" t="n">
-        <v>-13.23323991949189</v>
+        <v>-13.2332399194919</v>
       </c>
       <c r="AK5" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>28.819561600749</v>
       </c>
       <c r="AM5" t="n">
-        <v>9.303832257213743e-15</v>
+        <v>3.068632393607339e-14</v>
       </c>
       <c r="AN5" t="n">
         <v>486.9695920460123</v>
       </c>
       <c r="AO5" t="n">
-        <v>400.0686460769292</v>
+        <v>400.0686460769293</v>
       </c>
       <c r="AP5" t="n">
         <v>1673171.204736599</v>
@@ -1432,7 +1432,7 @@
         <v>1.599134056544429</v>
       </c>
       <c r="AJ6" t="n">
-        <v>12.71993182435402</v>
+        <v>12.71993182435597</v>
       </c>
       <c r="AK6" t="n">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>26.8635489775966</v>
       </c>
       <c r="AM6" t="n">
-        <v>1.960407668039883e-14</v>
+        <v>0</v>
       </c>
       <c r="AN6" t="n">
-        <v>682.5895031995061</v>
+        <v>682.5895031995066</v>
       </c>
       <c r="AO6" t="n">
-        <v>393.7243389670367</v>
+        <v>393.7243389670369</v>
       </c>
       <c r="AP6" t="n">
         <v>1682633.583026438</v>
@@ -1456,7 +1456,7 @@
         <v>-5.213163234429885e-10</v>
       </c>
       <c r="AR6" t="n">
-        <v>2.30730811942699</v>
+        <v>2.307308119426991</v>
       </c>
       <c r="AS6" t="n">
         <v>4.378693983642571</v>
@@ -1623,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>730.3747763252953</v>
+        <v>730.3747763252954</v>
       </c>
       <c r="AO7" t="n">
         <v>415.3550222116872</v>
@@ -1790,7 +1790,7 @@
         <v>2.05986567316972</v>
       </c>
       <c r="AJ8" t="n">
-        <v>-9.935427339385637</v>
+        <v>-9.935427339385649</v>
       </c>
       <c r="AK8" t="n">
         <v>0</v>
@@ -1799,13 +1799,13 @@
         <v>27.5492124621872</v>
       </c>
       <c r="AM8" t="n">
-        <v>2.516060588203292e-14</v>
+        <v>2.712349002885819e-14</v>
       </c>
       <c r="AN8" t="n">
         <v>463.8827799940543</v>
       </c>
       <c r="AO8" t="n">
-        <v>384.267074940039</v>
+        <v>384.2670749400392</v>
       </c>
       <c r="AP8" t="n">
         <v>1475810.098726621</v>
@@ -1814,10 +1814,10 @@
         <v>-2.484790151413563e-10</v>
       </c>
       <c r="AR8" t="n">
-        <v>2.232022318864398</v>
+        <v>2.232022318864397</v>
       </c>
       <c r="AS8" t="n">
-        <v>4.23582035562491</v>
+        <v>4.235820355624909</v>
       </c>
       <c r="AT8" t="n">
         <v>0</v>
@@ -1969,7 +1969,7 @@
         <v>1.678214561605993</v>
       </c>
       <c r="AJ9" t="n">
-        <v>6.229337262539802</v>
+        <v>6.22933725897435</v>
       </c>
       <c r="AK9" t="n">
         <v>0</v>
@@ -1978,13 +1978,13 @@
         <v>28.68575047578985</v>
       </c>
       <c r="AM9" t="n">
-        <v>3.006049756545606e-14</v>
+        <v>1.646345098939403e-14</v>
       </c>
       <c r="AN9" t="n">
         <v>778.7408943303577</v>
       </c>
       <c r="AO9" t="n">
-        <v>415.9670638328335</v>
+        <v>415.9670638328338</v>
       </c>
       <c r="AP9" t="n">
         <v>1783163.12879675</v>
@@ -2148,7 +2148,7 @@
         <v>1.674407097037697</v>
       </c>
       <c r="AJ10" t="n">
-        <v>-6.571381830210863</v>
+        <v>-6.571381830210857</v>
       </c>
       <c r="AK10" t="n">
         <v>0</v>
@@ -2157,7 +2157,7 @@
         <v>26.98277110268862</v>
       </c>
       <c r="AM10" t="n">
-        <v>1.479627877693898e-14</v>
+        <v>8.979810568073311e-15</v>
       </c>
       <c r="AN10" t="n">
         <v>574.2770723571298</v>
@@ -2172,10 +2172,10 @@
         <v>-2.696398659907118e-10</v>
       </c>
       <c r="AR10" t="n">
-        <v>2.219224296221647</v>
+        <v>2.219224296221646</v>
       </c>
       <c r="AS10" t="n">
-        <v>4.21153290815463</v>
+        <v>4.211532908154629</v>
       </c>
       <c r="AT10" t="n">
         <v>0</v>
@@ -2327,7 +2327,7 @@
         <v>1.365254119417965</v>
       </c>
       <c r="AJ11" t="n">
-        <v>-5.87752389672506</v>
+        <v>-5.877523895029465</v>
       </c>
       <c r="AK11" t="n">
         <v>0</v>
@@ -2342,7 +2342,7 @@
         <v>271.411771673509</v>
       </c>
       <c r="AO11" t="n">
-        <v>402.8701722346752</v>
+        <v>402.8701722346754</v>
       </c>
       <c r="AP11" t="n">
         <v>1709250.807969508</v>
@@ -2521,7 +2521,7 @@
         <v>295.3157569107772</v>
       </c>
       <c r="AO12" t="n">
-        <v>349.4460816665835</v>
+        <v>349.4460816665834</v>
       </c>
       <c r="AP12" t="n">
         <v>1390412.62534894</v>
@@ -2685,7 +2685,7 @@
         <v>1.322189247565792</v>
       </c>
       <c r="AJ13" t="n">
-        <v>15.38715486736236</v>
+        <v>15.38715486736235</v>
       </c>
       <c r="AK13" t="n">
         <v>0</v>
@@ -2694,13 +2694,13 @@
         <v>28.62666137955161</v>
       </c>
       <c r="AM13" t="n">
-        <v>2.785860565862837e-14</v>
+        <v>1.539334366723009e-14</v>
       </c>
       <c r="AN13" t="n">
         <v>713.2653045502086</v>
       </c>
       <c r="AO13" t="n">
-        <v>407.7893203746341</v>
+        <v>407.7893203746342</v>
       </c>
       <c r="AP13" t="n">
         <v>1647851.083453184</v>
@@ -2712,7 +2712,7 @@
         <v>2.116332258881113</v>
       </c>
       <c r="AS13" t="n">
-        <v>4.016269544291632</v>
+        <v>4.016269544291633</v>
       </c>
       <c r="AT13" t="n">
         <v>0</v>
@@ -2864,7 +2864,7 @@
         <v>1.939531199936992</v>
       </c>
       <c r="AJ14" t="n">
-        <v>-14.88655149418629</v>
+        <v>-14.88655149074114</v>
       </c>
       <c r="AK14" t="n">
         <v>0</v>
@@ -2873,13 +2873,13 @@
         <v>28.31880782377931</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>7.08825532854799e-14</v>
       </c>
       <c r="AN14" t="n">
-        <v>825.982760494295</v>
+        <v>825.9827604942956</v>
       </c>
       <c r="AO14" t="n">
-        <v>339.4725717872797</v>
+        <v>339.4725717872798</v>
       </c>
       <c r="AP14" t="n">
         <v>1357103.539834084</v>
@@ -2888,10 +2888,10 @@
         <v>-6.534883745246134e-10</v>
       </c>
       <c r="AR14" t="n">
-        <v>2.474090194360959</v>
+        <v>2.47409019436096</v>
       </c>
       <c r="AS14" t="n">
-        <v>4.69520466634851</v>
+        <v>4.695204666348511</v>
       </c>
       <c r="AT14" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>1.748866623482961</v>
       </c>
       <c r="AJ15" t="n">
-        <v>-8.235552376949915</v>
+        <v>-8.235552377933248</v>
       </c>
       <c r="AK15" t="n">
         <v>0</v>
@@ -3058,7 +3058,7 @@
         <v>688.784573517026</v>
       </c>
       <c r="AO15" t="n">
-        <v>381.778737645192</v>
+        <v>381.7787376451922</v>
       </c>
       <c r="AP15" t="n">
         <v>1467510.235953839</v>
@@ -3231,10 +3231,10 @@
         <v>29.43761899831065</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>1.355484269559717e-14</v>
       </c>
       <c r="AN16" t="n">
-        <v>960.5288874852213</v>
+        <v>960.5288874852218</v>
       </c>
       <c r="AO16" t="n">
         <v>398.475083602277</v>
@@ -3246,10 +3246,10 @@
         <v>-7.158384995875622e-10</v>
       </c>
       <c r="AR16" t="n">
-        <v>2.592593466772802</v>
+        <v>2.592593466772803</v>
       </c>
       <c r="AS16" t="n">
-        <v>4.920094251568084</v>
+        <v>4.920094251568086</v>
       </c>
       <c r="AT16" t="n">
         <v>0</v>
@@ -3401,7 +3401,7 @@
         <v>1.712871031404028</v>
       </c>
       <c r="AJ17" t="n">
-        <v>13.9620148816489</v>
+        <v>13.9620148779073</v>
       </c>
       <c r="AK17" t="n">
         <v>0</v>
@@ -3410,13 +3410,13 @@
         <v>27.35036572483058</v>
       </c>
       <c r="AM17" t="n">
-        <v>4.005310026309165e-14</v>
+        <v>0</v>
       </c>
       <c r="AN17" t="n">
-        <v>758.6254082245612</v>
+        <v>758.6254082245605</v>
       </c>
       <c r="AO17" t="n">
-        <v>457.3374291113182</v>
+        <v>457.3374291113183</v>
       </c>
       <c r="AP17" t="n">
         <v>2206678.843652248</v>
@@ -3425,10 +3425,10 @@
         <v>-5.56732437928531e-10</v>
       </c>
       <c r="AR17" t="n">
-        <v>2.419514851645018</v>
+        <v>2.419514851645016</v>
       </c>
       <c r="AS17" t="n">
-        <v>4.591634309709332</v>
+        <v>4.591634309709329</v>
       </c>
       <c r="AT17" t="n">
         <v>0</v>
@@ -3580,7 +3580,7 @@
         <v>1.962233490977176</v>
       </c>
       <c r="AJ18" t="n">
-        <v>-7.044839422513018</v>
+        <v>-7.044839419838408</v>
       </c>
       <c r="AK18" t="n">
         <v>0</v>
@@ -3595,7 +3595,7 @@
         <v>557.2306924117128</v>
       </c>
       <c r="AO18" t="n">
-        <v>353.3337177411645</v>
+        <v>353.3337177411647</v>
       </c>
       <c r="AP18" t="n">
         <v>1250906.401905971</v>
@@ -3768,10 +3768,10 @@
         <v>29.08188462560886</v>
       </c>
       <c r="AM19" t="n">
-        <v>9.27233964630732e-15</v>
+        <v>4.011706132688065e-14</v>
       </c>
       <c r="AN19" t="n">
-        <v>399.9737955029955</v>
+        <v>399.9737955029952</v>
       </c>
       <c r="AO19" t="n">
         <v>380.1316404848287</v>
@@ -3938,7 +3938,7 @@
         <v>1.418401385503618</v>
       </c>
       <c r="AJ20" t="n">
-        <v>-1.326238022104582</v>
+        <v>-1.326238025404473</v>
       </c>
       <c r="AK20" t="n">
         <v>0</v>
@@ -3947,13 +3947,13 @@
         <v>28.62854440208688</v>
       </c>
       <c r="AM20" t="n">
-        <v>2.467063597834872e-14</v>
+        <v>1.096472710148832e-14</v>
       </c>
       <c r="AN20" t="n">
         <v>396.3785335135668</v>
       </c>
       <c r="AO20" t="n">
-        <v>352.7222138170974</v>
+        <v>352.7222138170973</v>
       </c>
       <c r="AP20" t="n">
         <v>1270435.079313171</v>
@@ -4117,7 +4117,7 @@
         <v>1.623152021567676</v>
       </c>
       <c r="AJ21" t="n">
-        <v>-2.10693447583952</v>
+        <v>-2.106934475839501</v>
       </c>
       <c r="AK21" t="n">
         <v>0</v>
@@ -4126,13 +4126,13 @@
         <v>27.51478742361141</v>
       </c>
       <c r="AM21" t="n">
-        <v>2.688212917770959e-14</v>
+        <v>2.412835009121251e-14</v>
       </c>
       <c r="AN21" t="n">
         <v>789.892915523638</v>
       </c>
       <c r="AO21" t="n">
-        <v>441.8469546922593</v>
+        <v>441.8469546922591</v>
       </c>
       <c r="AP21" t="n">
         <v>1989544.950388957</v>
@@ -4141,10 +4141,10 @@
         <v>-6.17106366007647e-10</v>
       </c>
       <c r="AR21" t="n">
-        <v>2.393740847529349</v>
+        <v>2.39374084752935</v>
       </c>
       <c r="AS21" t="n">
-        <v>4.542721693398822</v>
+        <v>4.542721693398824</v>
       </c>
       <c r="AT21" t="n">
         <v>0</v>
@@ -4296,7 +4296,7 @@
         <v>1.573315547970377</v>
       </c>
       <c r="AJ22" t="n">
-        <v>-0.739512442505889</v>
+        <v>-0.7395124425058701</v>
       </c>
       <c r="AK22" t="n">
         <v>0</v>
@@ -4311,7 +4311,7 @@
         <v>818.6341005429059</v>
       </c>
       <c r="AO22" t="n">
-        <v>368.0163155710414</v>
+        <v>368.0163155710413</v>
       </c>
       <c r="AP22" t="n">
         <v>1492874.053567006</v>
@@ -4475,7 +4475,7 @@
         <v>1.915362757228993</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1.663700625335217</v>
+        <v>1.663700626182775</v>
       </c>
       <c r="AK23" t="n">
         <v>0</v>
@@ -4678,10 +4678,10 @@
         <v>-5.485056853160586e-10</v>
       </c>
       <c r="AR24" t="n">
-        <v>2.512127364433772</v>
+        <v>2.512127364433771</v>
       </c>
       <c r="AS24" t="n">
-        <v>4.76738970585419</v>
+        <v>4.767389705854189</v>
       </c>
       <c r="AT24" t="n">
         <v>0</v>
@@ -4833,34 +4833,34 @@
         <v>1.771522592038193</v>
       </c>
       <c r="AJ25" t="n">
-        <v>9.068990713667635</v>
+        <v>9.077934138330582</v>
       </c>
       <c r="AK25" t="n">
         <v>0</v>
       </c>
       <c r="AL25" t="n">
-        <v>27.47026997500677</v>
+        <v>27.47026997500675</v>
       </c>
       <c r="AM25" t="n">
-        <v>0</v>
+        <v>6.588338238158766e-14</v>
       </c>
       <c r="AN25" t="n">
-        <v>724.2348104644411</v>
+        <v>724.2348104643282</v>
       </c>
       <c r="AO25" t="n">
-        <v>449.310234014409</v>
+        <v>449.1820666985105</v>
       </c>
       <c r="AP25" t="n">
         <v>1946698.052062165</v>
       </c>
       <c r="AQ25" t="n">
-        <v>-4.253708496548825e-10</v>
+        <v>-4.253153385036512e-10</v>
       </c>
       <c r="AR25" t="n">
-        <v>2.405503745039546</v>
+        <v>2.40550374503947</v>
       </c>
       <c r="AS25" t="n">
-        <v>4.565044732148798</v>
+        <v>4.565044732148654</v>
       </c>
       <c r="AT25" t="n">
         <v>0</v>
@@ -5012,7 +5012,7 @@
         <v>1.493702972509996</v>
       </c>
       <c r="AJ26" t="n">
-        <v>-5.083241145691779</v>
+        <v>-5.083241144849036</v>
       </c>
       <c r="AK26" t="n">
         <v>0</v>
@@ -5021,13 +5021,13 @@
         <v>27.78765908585382</v>
       </c>
       <c r="AM26" t="n">
-        <v>7.08040443024972e-05</v>
+        <v>7.080404430480404e-05</v>
       </c>
       <c r="AN26" t="n">
         <v>747.3924007711461</v>
       </c>
       <c r="AO26" t="n">
-        <v>467.3233913334178</v>
+        <v>467.3233913334179</v>
       </c>
       <c r="AP26" t="n">
         <v>2151841.275449394</v>
@@ -5039,7 +5039,7 @@
         <v>2.284228270486655</v>
       </c>
       <c r="AS26" t="n">
-        <v>4.334894200316048</v>
+        <v>4.334894200316049</v>
       </c>
       <c r="AT26" t="n">
         <v>0</v>
@@ -5191,7 +5191,7 @@
         <v>1.413682395250455</v>
       </c>
       <c r="AJ27" t="n">
-        <v>8.839425255023079</v>
+        <v>8.839425255023087</v>
       </c>
       <c r="AK27" t="n">
         <v>0</v>
@@ -5203,7 +5203,7 @@
         <v>0</v>
       </c>
       <c r="AN27" t="n">
-        <v>816.8338717964756</v>
+        <v>816.8338717964749</v>
       </c>
       <c r="AO27" t="n">
         <v>404.4742507790189</v>
@@ -5215,10 +5215,10 @@
         <v>-7.293943227182353e-10</v>
       </c>
       <c r="AR27" t="n">
-        <v>2.300904987121343</v>
+        <v>2.300904987121342</v>
       </c>
       <c r="AS27" t="n">
-        <v>4.366542439309527</v>
+        <v>4.366542439309526</v>
       </c>
       <c r="AT27" t="n">
         <v>0</v>
@@ -5370,7 +5370,7 @@
         <v>1.876106048698701</v>
       </c>
       <c r="AJ28" t="n">
-        <v>13.37665604779228</v>
+        <v>13.37665604688545</v>
       </c>
       <c r="AK28" t="n">
         <v>0</v>
@@ -5379,13 +5379,13 @@
         <v>27.46468082930033</v>
       </c>
       <c r="AM28" t="n">
-        <v>2.733242401387211e-14</v>
+        <v>1.104685470560665e-13</v>
       </c>
       <c r="AN28" t="n">
-        <v>776.7597773768301</v>
+        <v>776.7597773768305</v>
       </c>
       <c r="AO28" t="n">
-        <v>429.877832338307</v>
+        <v>429.8778323383071</v>
       </c>
       <c r="AP28" t="n">
         <v>1812692.322066555</v>
@@ -5394,10 +5394,10 @@
         <v>-6.500910920692604e-10</v>
       </c>
       <c r="AR28" t="n">
-        <v>2.485791793781962</v>
+        <v>2.485791793781961</v>
       </c>
       <c r="AS28" t="n">
-        <v>4.717411376649718</v>
+        <v>4.717411376649716</v>
       </c>
       <c r="AT28" t="n">
         <v>0</v>
@@ -5549,7 +5549,7 @@
         <v>2.047218470994423</v>
       </c>
       <c r="AJ29" t="n">
-        <v>-8.765582190044023</v>
+        <v>-8.765582191627734</v>
       </c>
       <c r="AK29" t="n">
         <v>0</v>
@@ -5558,13 +5558,13 @@
         <v>28.10213528624875</v>
       </c>
       <c r="AM29" t="n">
-        <v>4.686969829789856e-14</v>
+        <v>4.092306536242167e-14</v>
       </c>
       <c r="AN29" t="n">
         <v>779.070893746239</v>
       </c>
       <c r="AO29" t="n">
-        <v>471.237270543447</v>
+        <v>471.2372705434472</v>
       </c>
       <c r="AP29" t="n">
         <v>2206620.019797137</v>
@@ -5573,7 +5573,7 @@
         <v>-3.858580122084732e-10</v>
       </c>
       <c r="AR29" t="n">
-        <v>2.535878733394194</v>
+        <v>2.535878733394193</v>
       </c>
       <c r="AS29" t="n">
         <v>4.81246386629883</v>
@@ -5728,7 +5728,7 @@
         <v>1.729297206177162</v>
       </c>
       <c r="AJ30" t="n">
-        <v>9.823521573558788</v>
+        <v>9.823521573558772</v>
       </c>
       <c r="AK30" t="n">
         <v>0</v>
@@ -5737,13 +5737,13 @@
         <v>27.78197405392547</v>
       </c>
       <c r="AM30" t="n">
-        <v>1.775508406473456e-05</v>
+        <v>1.775508406606108e-05</v>
       </c>
       <c r="AN30" t="n">
         <v>743.8935373440549</v>
       </c>
       <c r="AO30" t="n">
-        <v>442.6147719304396</v>
+        <v>442.6147719304395</v>
       </c>
       <c r="AP30" t="n">
         <v>2004368.121538626</v>
@@ -5755,7 +5755,7 @@
         <v>2.376081822773787</v>
       </c>
       <c r="AS30" t="n">
-        <v>4.509209279168955</v>
+        <v>4.509209279168954</v>
       </c>
       <c r="AT30" t="n">
         <v>0</v>
@@ -5907,7 +5907,7 @@
         <v>1.999807611696579</v>
       </c>
       <c r="AJ31" t="n">
-        <v>-6.985251520663009</v>
+        <v>-6.985251520663066</v>
       </c>
       <c r="AK31" t="n">
         <v>0</v>
@@ -5916,13 +5916,13 @@
         <v>27.88543384168366</v>
       </c>
       <c r="AM31" t="n">
-        <v>4.389719133369571e-14</v>
+        <v>3.943045958395124e-14</v>
       </c>
       <c r="AN31" t="n">
         <v>630.741927204569</v>
       </c>
       <c r="AO31" t="n">
-        <v>415.0266936903731</v>
+        <v>415.0266936903733</v>
       </c>
       <c r="AP31" t="n">
         <v>1817690.619444563</v>
@@ -6098,7 +6098,7 @@
         <v>0</v>
       </c>
       <c r="AN32" t="n">
-        <v>402.8152824964653</v>
+        <v>402.815282496465</v>
       </c>
       <c r="AO32" t="n">
         <v>430.4705846833403</v>
@@ -6265,7 +6265,7 @@
         <v>1.428363321845213</v>
       </c>
       <c r="AJ33" t="n">
-        <v>19.80389783420612</v>
+        <v>19.80389783420611</v>
       </c>
       <c r="AK33" t="n">
         <v>0</v>
@@ -6274,10 +6274,10 @@
         <v>28.84384916432719</v>
       </c>
       <c r="AM33" t="n">
-        <v>1.499968372077558e-13</v>
+        <v>7.000287744306237e-14</v>
       </c>
       <c r="AN33" t="n">
-        <v>414.3999649585732</v>
+        <v>414.3999649585729</v>
       </c>
       <c r="AO33" t="n">
         <v>466.6402337132919</v>
@@ -6289,10 +6289,10 @@
         <v>-1.928013304564047e-10</v>
       </c>
       <c r="AR33" t="n">
-        <v>1.85805914077767</v>
+        <v>1.858059140777669</v>
       </c>
       <c r="AS33" t="n">
-        <v>3.526131734410822</v>
+        <v>3.526131734410821</v>
       </c>
       <c r="AT33" t="n">
         <v>0</v>
@@ -6444,7 +6444,7 @@
         <v>1.949683217331446</v>
       </c>
       <c r="AJ34" t="n">
-        <v>-8.237413993653183</v>
+        <v>-8.237413995362916</v>
       </c>
       <c r="AK34" t="n">
         <v>0</v>
@@ -6453,13 +6453,13 @@
         <v>29.20380898062106</v>
       </c>
       <c r="AM34" t="n">
-        <v>0.00131964072278662</v>
+        <v>0.001319640722792945</v>
       </c>
       <c r="AN34" t="n">
         <v>833.4585117256014</v>
       </c>
       <c r="AO34" t="n">
-        <v>386.5212931865165</v>
+        <v>386.5212931865166</v>
       </c>
       <c r="AP34" t="n">
         <v>1600494.940751952</v>
@@ -6471,7 +6471,7 @@
         <v>2.448494120121108</v>
       </c>
       <c r="AS34" t="n">
-        <v>4.646629716459832</v>
+        <v>4.646629716459833</v>
       </c>
       <c r="AT34" t="n">
         <v>0</v>
@@ -6623,7 +6623,7 @@
         <v>1.976310823446172</v>
       </c>
       <c r="AJ35" t="n">
-        <v>-15.84449362622769</v>
+        <v>-15.84449362912258</v>
       </c>
       <c r="AK35" t="n">
         <v>0</v>
@@ -6638,7 +6638,7 @@
         <v>424.4484789764318</v>
       </c>
       <c r="AO35" t="n">
-        <v>430.8000625659193</v>
+        <v>430.8000625659196</v>
       </c>
       <c r="AP35" t="n">
         <v>1749064.605276987</v>
@@ -6802,7 +6802,7 @@
         <v>1.627037502335289</v>
       </c>
       <c r="AJ36" t="n">
-        <v>1.179464175237759</v>
+        <v>1.179464175237734</v>
       </c>
       <c r="AK36" t="n">
         <v>0</v>
@@ -6981,7 +6981,7 @@
         <v>1.480431403889903</v>
       </c>
       <c r="AJ37" t="n">
-        <v>-5.465738187115633</v>
+        <v>-5.465738185210041</v>
       </c>
       <c r="AK37" t="n">
         <v>0</v>
@@ -6990,13 +6990,13 @@
         <v>28.45054456018702</v>
       </c>
       <c r="AM37" t="n">
-        <v>0</v>
+        <v>2.814353509918297e-14</v>
       </c>
       <c r="AN37" t="n">
-        <v>808.0181138067958</v>
+        <v>808.0181138067957</v>
       </c>
       <c r="AO37" t="n">
-        <v>412.0637722889248</v>
+        <v>412.063772288925</v>
       </c>
       <c r="AP37" t="n">
         <v>1689096.184786509</v>
@@ -7160,7 +7160,7 @@
         <v>1.557837998146326</v>
       </c>
       <c r="AJ38" t="n">
-        <v>-7.999473559307728</v>
+        <v>-7.99947355674963</v>
       </c>
       <c r="AK38" t="n">
         <v>0</v>
@@ -7169,13 +7169,13 @@
         <v>27.78096194124286</v>
       </c>
       <c r="AM38" t="n">
-        <v>9.233582291388314e-15</v>
+        <v>4.95077178176565e-14</v>
       </c>
       <c r="AN38" t="n">
-        <v>294.6665968676838</v>
+        <v>294.6665968676842</v>
       </c>
       <c r="AO38" t="n">
-        <v>366.4151261727209</v>
+        <v>366.415126172721</v>
       </c>
       <c r="AP38" t="n">
         <v>1301404.582952318</v>
@@ -7184,10 +7184,10 @@
         <v>-1.619815392928103e-10</v>
       </c>
       <c r="AR38" t="n">
-        <v>1.827931354846982</v>
+        <v>1.827931354846983</v>
       </c>
       <c r="AS38" t="n">
-        <v>3.46895672866086</v>
+        <v>3.468956728660861</v>
       </c>
       <c r="AT38" t="n">
         <v>0</v>
@@ -7339,7 +7339,7 @@
         <v>1.695954917197515</v>
       </c>
       <c r="AJ39" t="n">
-        <v>-3.353649461999077</v>
+        <v>-3.353649461070667</v>
       </c>
       <c r="AK39" t="n">
         <v>0</v>
@@ -7354,7 +7354,7 @@
         <v>464.1497958739381</v>
       </c>
       <c r="AO39" t="n">
-        <v>401.4550797538855</v>
+        <v>401.4550797538856</v>
       </c>
       <c r="AP39" t="n">
         <v>1582742.474845905</v>
@@ -7518,7 +7518,7 @@
         <v>1.546432313774605</v>
       </c>
       <c r="AJ40" t="n">
-        <v>-21.71851846629983</v>
+        <v>-21.71851846629985</v>
       </c>
       <c r="AK40" t="n">
         <v>0</v>
@@ -7527,7 +7527,7 @@
         <v>28.58166663785569</v>
       </c>
       <c r="AM40" t="n">
-        <v>0</v>
+        <v>2.13363082721462e-15</v>
       </c>
       <c r="AN40" t="n">
         <v>687.7553523155934</v>
@@ -7697,7 +7697,7 @@
         <v>1.515620776445043</v>
       </c>
       <c r="AJ41" t="n">
-        <v>10.11635276952184</v>
+        <v>10.11635276952054</v>
       </c>
       <c r="AK41" t="n">
         <v>0</v>
@@ -7706,13 +7706,13 @@
         <v>27.14370999265126</v>
       </c>
       <c r="AM41" t="n">
-        <v>0.0008311318165461994</v>
+        <v>0.0008311318164943703</v>
       </c>
       <c r="AN41" t="n">
-        <v>729.5021867409397</v>
+        <v>729.5021867409388</v>
       </c>
       <c r="AO41" t="n">
-        <v>455.7566876688101</v>
+        <v>455.7566876688102</v>
       </c>
       <c r="AP41" t="n">
         <v>2186230.393952508</v>
@@ -7721,10 +7721,10 @@
         <v>-5.316747042627412e-10</v>
       </c>
       <c r="AR41" t="n">
-        <v>2.316234091423635</v>
+        <v>2.316234091423634</v>
       </c>
       <c r="AS41" t="n">
-        <v>4.395633246999203</v>
+        <v>4.395633246999202</v>
       </c>
       <c r="AT41" t="n">
         <v>0</v>
@@ -7876,7 +7876,7 @@
         <v>1.785366110454051</v>
       </c>
       <c r="AJ42" t="n">
-        <v>-12.34985649335286</v>
+        <v>-12.34985649335288</v>
       </c>
       <c r="AK42" t="n">
         <v>0</v>
@@ -7885,13 +7885,13 @@
         <v>28.3616286621738</v>
       </c>
       <c r="AM42" t="n">
-        <v>9.141318786106099e-14</v>
+        <v>4.705657771750819e-14</v>
       </c>
       <c r="AN42" t="n">
-        <v>714.2686996418696</v>
+        <v>714.2686996418693</v>
       </c>
       <c r="AO42" t="n">
-        <v>359.5273453362141</v>
+        <v>359.5273453362142</v>
       </c>
       <c r="AP42" t="n">
         <v>1432127.518871904</v>
@@ -7903,7 +7903,7 @@
         <v>2.316605323609127</v>
       </c>
       <c r="AS42" t="n">
-        <v>4.396337752879219</v>
+        <v>4.39633775287922</v>
       </c>
       <c r="AT42" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>2.054400428857366</v>
       </c>
       <c r="AJ43" t="n">
-        <v>3.114461569777846</v>
+        <v>3.114461568904948</v>
       </c>
       <c r="AK43" t="n">
         <v>0</v>
@@ -8064,13 +8064,13 @@
         <v>27.32835497891136</v>
       </c>
       <c r="AM43" t="n">
-        <v>3.598115806716795e-14</v>
+        <v>3.770167082297847e-14</v>
       </c>
       <c r="AN43" t="n">
         <v>425.6867637986922</v>
       </c>
       <c r="AO43" t="n">
-        <v>426.5359329541604</v>
+        <v>426.5359329541603</v>
       </c>
       <c r="AP43" t="n">
         <v>1772690.646889114</v>
@@ -8079,10 +8079,10 @@
         <v>-1.961653062210189e-10</v>
       </c>
       <c r="AR43" t="n">
-        <v>2.230449037342202</v>
+        <v>2.230449037342203</v>
       </c>
       <c r="AS43" t="n">
-        <v>4.232834660616164</v>
+        <v>4.232834660616165</v>
       </c>
       <c r="AT43" t="n">
         <v>0</v>
@@ -8234,7 +8234,7 @@
         <v>1.664161746462834</v>
       </c>
       <c r="AJ44" t="n">
-        <v>9.347591622217399</v>
+        <v>9.347591619565598</v>
       </c>
       <c r="AK44" t="n">
         <v>0</v>
@@ -8243,13 +8243,13 @@
         <v>28.81725612302575</v>
       </c>
       <c r="AM44" t="n">
-        <v>1.132146439706102e-13</v>
+        <v>1.078832064429083e-13</v>
       </c>
       <c r="AN44" t="n">
         <v>883.3602346996664</v>
       </c>
       <c r="AO44" t="n">
-        <v>410.6482583398061</v>
+        <v>410.648258339806</v>
       </c>
       <c r="AP44" t="n">
         <v>1730429.1612521</v>
@@ -8413,7 +8413,7 @@
         <v>1.369585565284565</v>
       </c>
       <c r="AJ45" t="n">
-        <v>-4.88273069162</v>
+        <v>-4.882730691619981</v>
       </c>
       <c r="AK45" t="n">
         <v>0</v>
@@ -8425,10 +8425,10 @@
         <v>0</v>
       </c>
       <c r="AN45" t="n">
-        <v>851.2622787166209</v>
+        <v>851.2622787166204</v>
       </c>
       <c r="AO45" t="n">
-        <v>359.1303343241088</v>
+        <v>359.1303343241087</v>
       </c>
       <c r="AP45" t="n">
         <v>1390423.776550311</v>
@@ -8437,10 +8437,10 @@
         <v>-5.209166431541234e-10</v>
       </c>
       <c r="AR45" t="n">
-        <v>2.24493825534152</v>
+        <v>2.244938255341519</v>
       </c>
       <c r="AS45" t="n">
-        <v>4.260331574074369</v>
+        <v>4.260331574074367</v>
       </c>
       <c r="AT45" t="n">
         <v>0</v>
@@ -8592,7 +8592,7 @@
         <v>1.92497437450239</v>
       </c>
       <c r="AJ46" t="n">
-        <v>-12.75483922212067</v>
+        <v>-12.75483922212069</v>
       </c>
       <c r="AK46" t="n">
         <v>0</v>
@@ -8601,7 +8601,7 @@
         <v>26.9541352230176</v>
       </c>
       <c r="AM46" t="n">
-        <v>1.550292666863013e-15</v>
+        <v>0</v>
       </c>
       <c r="AN46" t="n">
         <v>612.5117968223906</v>
@@ -8780,13 +8780,13 @@
         <v>27.67507376754544</v>
       </c>
       <c r="AM47" t="n">
-        <v>1.678436988524208e-14</v>
+        <v>0</v>
       </c>
       <c r="AN47" t="n">
-        <v>691.43222741966</v>
+        <v>691.4322274196605</v>
       </c>
       <c r="AO47" t="n">
-        <v>403.7738462687003</v>
+        <v>403.7738462687002</v>
       </c>
       <c r="AP47" t="n">
         <v>1667182.501838509</v>
@@ -8795,10 +8795,10 @@
         <v>-3.509192936235195e-10</v>
       </c>
       <c r="AR47" t="n">
-        <v>2.152590990567976</v>
+        <v>2.152590990567975</v>
       </c>
       <c r="AS47" t="n">
-        <v>4.085079552350376</v>
+        <v>4.085079552350375</v>
       </c>
       <c r="AT47" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>1.817614659571221</v>
       </c>
       <c r="AJ48" t="n">
-        <v>-7.472543162040681</v>
+        <v>-7.472543160274243</v>
       </c>
       <c r="AK48" t="n">
         <v>0</v>
@@ -8965,7 +8965,7 @@
         <v>657.449909203452</v>
       </c>
       <c r="AO48" t="n">
-        <v>439.1928215769436</v>
+        <v>439.1928215769437</v>
       </c>
       <c r="AP48" t="n">
         <v>1972160.442167166</v>
@@ -8977,7 +8977,7 @@
         <v>2.407117229870896</v>
       </c>
       <c r="AS48" t="n">
-        <v>4.568106722987493</v>
+        <v>4.568106722987492</v>
       </c>
       <c r="AT48" t="n">
         <v>0</v>
@@ -9129,7 +9129,7 @@
         <v>1.83060219755754</v>
       </c>
       <c r="AJ49" t="n">
-        <v>19.20487550922631</v>
+        <v>19.20487550628802</v>
       </c>
       <c r="AK49" t="n">
         <v>0</v>
@@ -9144,7 +9144,7 @@
         <v>604.6991430532968</v>
       </c>
       <c r="AO49" t="n">
-        <v>471.5094710899181</v>
+        <v>471.509471089918</v>
       </c>
       <c r="AP49" t="n">
         <v>1857925.390819321</v>
@@ -9308,7 +9308,7 @@
         <v>1.268416309122984</v>
       </c>
       <c r="AJ50" t="n">
-        <v>24.77318580781366</v>
+        <v>24.77318580781367</v>
       </c>
       <c r="AK50" t="n">
         <v>0</v>
@@ -9320,10 +9320,10 @@
         <v>0</v>
       </c>
       <c r="AN50" t="n">
-        <v>413.4709947282756</v>
+        <v>413.4709947282758</v>
       </c>
       <c r="AO50" t="n">
-        <v>445.1260231876658</v>
+        <v>445.1260231876657</v>
       </c>
       <c r="AP50" t="n">
         <v>2056484.559844032</v>
@@ -9335,7 +9335,7 @@
         <v>1.786345169871704</v>
       </c>
       <c r="AS50" t="n">
-        <v>3.390036546124026</v>
+        <v>3.390036546124027</v>
       </c>
       <c r="AT50" t="n">
         <v>0</v>
@@ -9487,7 +9487,7 @@
         <v>1.50883044935531</v>
       </c>
       <c r="AJ51" t="n">
-        <v>-16.68361274326037</v>
+        <v>-16.68361274326039</v>
       </c>
       <c r="AK51" t="n">
         <v>0</v>
@@ -9502,7 +9502,7 @@
         <v>370.2770893652046</v>
       </c>
       <c r="AO51" t="n">
-        <v>467.666255182989</v>
+        <v>467.6662551829892</v>
       </c>
       <c r="AP51" t="n">
         <v>1853935.232697214</v>
@@ -9666,7 +9666,7 @@
         <v>1.60804469391641</v>
       </c>
       <c r="AJ52" t="n">
-        <v>0.03493470431194136</v>
+        <v>0.0349347020180508</v>
       </c>
       <c r="AK52" t="n">
         <v>0</v>
@@ -9675,13 +9675,13 @@
         <v>26.82593292448797</v>
       </c>
       <c r="AM52" t="n">
-        <v>0.0006966532973229661</v>
+        <v>0.0006966532974502011</v>
       </c>
       <c r="AN52" t="n">
-        <v>723.8141781711111</v>
+        <v>723.8141781711118</v>
       </c>
       <c r="AO52" t="n">
-        <v>436.1699176995544</v>
+        <v>436.1699176995546</v>
       </c>
       <c r="AP52" t="n">
         <v>2091018.634376548</v>
@@ -9845,7 +9845,7 @@
         <v>1.805763903044606</v>
       </c>
       <c r="AJ53" t="n">
-        <v>-6.787622289626924</v>
+        <v>-6.787622288704772</v>
       </c>
       <c r="AK53" t="n">
         <v>0</v>
@@ -9860,7 +9860,7 @@
         <v>862.3075485434753</v>
       </c>
       <c r="AO53" t="n">
-        <v>400.9362593879766</v>
+        <v>400.9362593879768</v>
       </c>
       <c r="AP53" t="n">
         <v>1574008.246427196</v>
@@ -10033,10 +10033,10 @@
         <v>28.32785614302473</v>
       </c>
       <c r="AM54" t="n">
-        <v>6.582655217506135e-14</v>
+        <v>6.463653838692988e-14</v>
       </c>
       <c r="AN54" t="n">
-        <v>862.1275316130251</v>
+        <v>862.1275316130245</v>
       </c>
       <c r="AO54" t="n">
         <v>461.9503719554368</v>
@@ -10051,7 +10051,7 @@
         <v>2.509364866540718</v>
       </c>
       <c r="AS54" t="n">
-        <v>4.762147175477647</v>
+        <v>4.762147175477646</v>
       </c>
       <c r="AT54" t="n">
         <v>0</v>
@@ -10203,7 +10203,7 @@
         <v>1.691830420576493</v>
       </c>
       <c r="AJ55" t="n">
-        <v>5.631741676417342</v>
+        <v>5.631741677286548</v>
       </c>
       <c r="AK55" t="n">
         <v>0</v>
@@ -10218,7 +10218,7 @@
         <v>826.3018584375726</v>
       </c>
       <c r="AO55" t="n">
-        <v>453.2247966931986</v>
+        <v>453.2247966931987</v>
       </c>
       <c r="AP55" t="n">
         <v>2001340.007723494</v>
@@ -10391,7 +10391,7 @@
         <v>28.07536615087185</v>
       </c>
       <c r="AM56" t="n">
-        <v>1.321646768707996e-14</v>
+        <v>2.241053216504864e-14</v>
       </c>
       <c r="AN56" t="n">
         <v>715.373408615564</v>
@@ -10406,10 +10406,10 @@
         <v>-3.082423205569285e-10</v>
       </c>
       <c r="AR56" t="n">
-        <v>2.421030645374636</v>
+        <v>2.421030645374635</v>
       </c>
       <c r="AS56" t="n">
-        <v>4.594510907259714</v>
+        <v>4.594510907259712</v>
       </c>
       <c r="AT56" t="n">
         <v>0</v>
@@ -10570,7 +10570,7 @@
         <v>26.80846469315311</v>
       </c>
       <c r="AM57" t="n">
-        <v>0</v>
+        <v>1.302953816171268e-14</v>
       </c>
       <c r="AN57" t="n">
         <v>220.3700411784463</v>
@@ -10585,10 +10585,10 @@
         <v>-1.497468815614411e-10</v>
       </c>
       <c r="AR57" t="n">
-        <v>1.90556901840434</v>
+        <v>1.905569018404339</v>
       </c>
       <c r="AS57" t="n">
-        <v>3.616293604676836</v>
+        <v>3.616293604676835</v>
       </c>
       <c r="AT57" t="n">
         <v>0</v>
@@ -10749,7 +10749,7 @@
         <v>26.74771385648064</v>
       </c>
       <c r="AM58" t="n">
-        <v>7.600448961725299e-14</v>
+        <v>6.668318428683517e-14</v>
       </c>
       <c r="AN58" t="n">
         <v>199.208334958152</v>
@@ -10764,10 +10764,10 @@
         <v>-1.449729225555529e-10</v>
       </c>
       <c r="AR58" t="n">
-        <v>1.955778452270161</v>
+        <v>1.955778452270162</v>
       </c>
       <c r="AS58" t="n">
-        <v>3.711578557795698</v>
+        <v>3.7115785577957</v>
       </c>
       <c r="AT58" t="n">
         <v>0</v>
@@ -10928,7 +10928,7 @@
         <v>27.57740061064462</v>
       </c>
       <c r="AM59" t="n">
-        <v>3.250962342543052e-15</v>
+        <v>8.212957496950868e-15</v>
       </c>
       <c r="AN59" t="n">
         <v>639.9354379554395</v>
@@ -11098,34 +11098,34 @@
         <v>1.823090664530222</v>
       </c>
       <c r="AJ60" t="n">
-        <v>1.552796283075188</v>
+        <v>1.567303532474772</v>
       </c>
       <c r="AK60" t="n">
         <v>0</v>
       </c>
       <c r="AL60" t="n">
-        <v>28.14628824370443</v>
+        <v>28.14628824370338</v>
       </c>
       <c r="AM60" t="n">
-        <v>3.985336939274549e-14</v>
+        <v>9.447142031956805e-14</v>
       </c>
       <c r="AN60" t="n">
-        <v>590.1897216215451</v>
+        <v>590.1897216241774</v>
       </c>
       <c r="AO60" t="n">
-        <v>369.302795381468</v>
+        <v>369.1746280655723</v>
       </c>
       <c r="AP60" t="n">
         <v>1376297.794811317</v>
       </c>
       <c r="AQ60" t="n">
-        <v>-3.095967926469712e-10</v>
+        <v>-3.095856904167249e-10</v>
       </c>
       <c r="AR60" t="n">
-        <v>2.212921213981975</v>
+        <v>2.212921213984838</v>
       </c>
       <c r="AS60" t="n">
-        <v>4.199571233834293</v>
+        <v>4.199571233839726</v>
       </c>
       <c r="AT60" t="n">
         <v>0</v>
@@ -11286,13 +11286,13 @@
         <v>28.91964435988077</v>
       </c>
       <c r="AM61" t="n">
-        <v>0.000344601244046977</v>
+        <v>0.0003446012440458101</v>
       </c>
       <c r="AN61" t="n">
         <v>829.4838684829931</v>
       </c>
       <c r="AO61" t="n">
-        <v>468.4160180273125</v>
+        <v>468.4160180273126</v>
       </c>
       <c r="AP61" t="n">
         <v>2050737.120450731</v>
@@ -11301,10 +11301,10 @@
         <v>-3.8130609780751e-10</v>
       </c>
       <c r="AR61" t="n">
-        <v>2.435400766020402</v>
+        <v>2.435400766020401</v>
       </c>
       <c r="AS61" t="n">
-        <v>4.621781803715218</v>
+        <v>4.621781803715217</v>
       </c>
       <c r="AT61" t="n">
         <v>0</v>
@@ -11456,7 +11456,7 @@
         <v>1.390040321964017</v>
       </c>
       <c r="AJ62" t="n">
-        <v>-9.186946661820217</v>
+        <v>-9.186946661820222</v>
       </c>
       <c r="AK62" t="n">
         <v>0</v>
@@ -11465,10 +11465,10 @@
         <v>28.36275916716426</v>
       </c>
       <c r="AM62" t="n">
-        <v>7.789101047968364e-14</v>
+        <v>0</v>
       </c>
       <c r="AN62" t="n">
-        <v>850.0883357964624</v>
+        <v>850.0883357964617</v>
       </c>
       <c r="AO62" t="n">
         <v>394.6001710256538</v>
@@ -11480,10 +11480,10 @@
         <v>-6.573741551108014e-10</v>
       </c>
       <c r="AR62" t="n">
-        <v>2.274319674980074</v>
+        <v>2.274319674980073</v>
       </c>
       <c r="AS62" t="n">
-        <v>4.316090163193435</v>
+        <v>4.316090163193434</v>
       </c>
       <c r="AT62" t="n">
         <v>0</v>
@@ -11635,7 +11635,7 @@
         <v>1.280303462661895</v>
       </c>
       <c r="AJ63" t="n">
-        <v>6.785746398718943</v>
+        <v>6.785746399617921</v>
       </c>
       <c r="AK63" t="n">
         <v>0</v>
@@ -11644,10 +11644,10 @@
         <v>27.2289926392609</v>
       </c>
       <c r="AM63" t="n">
-        <v>0</v>
+        <v>5.151458141084882e-14</v>
       </c>
       <c r="AN63" t="n">
-        <v>281.0928261868255</v>
+        <v>281.0928261868257</v>
       </c>
       <c r="AO63" t="n">
         <v>398.6014834055557</v>
@@ -11662,7 +11662,7 @@
         <v>1.726798343171657</v>
       </c>
       <c r="AS63" t="n">
-        <v>3.277031555754012</v>
+        <v>3.277031555754013</v>
       </c>
       <c r="AT63" t="n">
         <v>0</v>
@@ -11814,7 +11814,7 @@
         <v>1.653317217224169</v>
       </c>
       <c r="AJ64" t="n">
-        <v>12.45829973779815</v>
+        <v>12.45829973779813</v>
       </c>
       <c r="AK64" t="n">
         <v>0</v>
@@ -11823,13 +11823,13 @@
         <v>27.45982835564003</v>
       </c>
       <c r="AM64" t="n">
-        <v>7.831924518857741e-15</v>
+        <v>8.950770878694561e-15</v>
       </c>
       <c r="AN64" t="n">
         <v>768.5372367685643</v>
       </c>
       <c r="AO64" t="n">
-        <v>371.3675195741388</v>
+        <v>371.3675195741391</v>
       </c>
       <c r="AP64" t="n">
         <v>1617281.23348265</v>
@@ -11993,7 +11993,7 @@
         <v>1.342585558969816</v>
       </c>
       <c r="AJ65" t="n">
-        <v>2.66162753145533</v>
+        <v>2.661627531455342</v>
       </c>
       <c r="AK65" t="n">
         <v>0</v>
@@ -12002,13 +12002,13 @@
         <v>26.72065862422549</v>
       </c>
       <c r="AM65" t="n">
-        <v>1.222954207423619e-14</v>
+        <v>1.025703528806906e-14</v>
       </c>
       <c r="AN65" t="n">
         <v>284.3076862051376</v>
       </c>
       <c r="AO65" t="n">
-        <v>353.5816954977869</v>
+        <v>353.5816954977868</v>
       </c>
       <c r="AP65" t="n">
         <v>1435748.272419296</v>
@@ -12172,7 +12172,7 @@
         <v>1.63640781583148</v>
       </c>
       <c r="AJ66" t="n">
-        <v>2.536822380946364</v>
+        <v>2.536822381468069</v>
       </c>
       <c r="AK66" t="n">
         <v>0</v>
@@ -12181,13 +12181,13 @@
         <v>28.60056980640764</v>
       </c>
       <c r="AM66" t="n">
-        <v>1.103941909291646e-14</v>
+        <v>1.93674019173973e-14</v>
       </c>
       <c r="AN66" t="n">
         <v>373.2160138819344</v>
       </c>
       <c r="AO66" t="n">
-        <v>356.1212298170756</v>
+        <v>356.1212298170757</v>
       </c>
       <c r="AP66" t="n">
         <v>1348845.57266652</v>
@@ -12351,7 +12351,7 @@
         <v>1.740128872694422</v>
       </c>
       <c r="AJ67" t="n">
-        <v>7.118352456358792</v>
+        <v>7.126951321944299</v>
       </c>
       <c r="AK67" t="n">
         <v>0</v>
@@ -12360,25 +12360,25 @@
         <v>28.42850653385504</v>
       </c>
       <c r="AM67" t="n">
-        <v>1.000373893100968e-13</v>
+        <v>1.060444520886969e-13</v>
       </c>
       <c r="AN67" t="n">
-        <v>850.8176646528043</v>
+        <v>850.8176646532252</v>
       </c>
       <c r="AO67" t="n">
-        <v>438.1246413568915</v>
+        <v>437.9964740409143</v>
       </c>
       <c r="AP67" t="n">
         <v>1991717.854542145</v>
       </c>
       <c r="AQ67" t="n">
-        <v>-5.509592782004802e-10</v>
+        <v>-5.51081402733189e-10</v>
       </c>
       <c r="AR67" t="n">
-        <v>2.436369910608295</v>
+        <v>2.436369910608666</v>
       </c>
       <c r="AS67" t="n">
-        <v>4.623620997856892</v>
+        <v>4.623620997857596</v>
       </c>
       <c r="AT67" t="n">
         <v>0</v>
@@ -12530,34 +12530,34 @@
         <v>1.316547312145139</v>
       </c>
       <c r="AJ68" t="n">
-        <v>3.759661273976994</v>
+        <v>3.769092791471738</v>
       </c>
       <c r="AK68" t="n">
         <v>0</v>
       </c>
       <c r="AL68" t="n">
-        <v>28.42408412647394</v>
+        <v>28.42408409267297</v>
       </c>
       <c r="AM68" t="n">
         <v>0</v>
       </c>
       <c r="AN68" t="n">
-        <v>861.6011729148806</v>
+        <v>861.6011789349932</v>
       </c>
       <c r="AO68" t="n">
-        <v>476.1690286349594</v>
+        <v>476.0408632886964</v>
       </c>
       <c r="AP68" t="n">
-        <v>2215243.981408049</v>
+        <v>2215243.981408048</v>
       </c>
       <c r="AQ68" t="n">
-        <v>-6.311506872691552e-10</v>
+        <v>-6.310840738876777e-10</v>
       </c>
       <c r="AR68" t="n">
-        <v>2.273725877063745</v>
+        <v>2.27372588611789</v>
       </c>
       <c r="AS68" t="n">
-        <v>4.314963283197723</v>
+        <v>4.314963300380226</v>
       </c>
       <c r="AT68" t="n">
         <v>0</v>
@@ -12718,13 +12718,13 @@
         <v>28.07771331062255</v>
       </c>
       <c r="AM69" t="n">
-        <v>6.285927308764681e-14</v>
+        <v>9.721259675182588e-14</v>
       </c>
       <c r="AN69" t="n">
-        <v>745.8433595030406</v>
+        <v>745.8433595030402</v>
       </c>
       <c r="AO69" t="n">
-        <v>388.0688607650538</v>
+        <v>388.068860765054</v>
       </c>
       <c r="AP69" t="n">
         <v>1489472.961457221</v>
@@ -12736,7 +12736,7 @@
         <v>2.449437458662492</v>
       </c>
       <c r="AS69" t="n">
-        <v>4.648419937176744</v>
+        <v>4.648419937176743</v>
       </c>
       <c r="AT69" t="n">
         <v>0</v>
@@ -12897,10 +12897,10 @@
         <v>28.7548349385956</v>
       </c>
       <c r="AM70" t="n">
-        <v>2.924553608404735e-14</v>
+        <v>0</v>
       </c>
       <c r="AN70" t="n">
-        <v>697.797471857968</v>
+        <v>697.7974718579682</v>
       </c>
       <c r="AO70" t="n">
         <v>393.3996630897438</v>
@@ -13067,34 +13067,34 @@
         <v>1.843512111204241</v>
       </c>
       <c r="AJ71" t="n">
-        <v>-0.234166833005428</v>
+        <v>-0.3773626287963954</v>
       </c>
       <c r="AK71" t="n">
         <v>0</v>
       </c>
       <c r="AL71" t="n">
-        <v>26.92786911905045</v>
+        <v>26.82944054448239</v>
       </c>
       <c r="AM71" t="n">
-        <v>0</v>
+        <v>4.890932082106485e-14</v>
       </c>
       <c r="AN71" t="n">
-        <v>405.477801921786</v>
+        <v>403.8628547722178</v>
       </c>
       <c r="AO71" t="n">
-        <v>409.6784543401478</v>
+        <v>409.319756637433</v>
       </c>
       <c r="AP71" t="n">
-        <v>1845947.334148114</v>
+        <v>1845947.334148113</v>
       </c>
       <c r="AQ71" t="n">
-        <v>-2.178257574314557e-10</v>
+        <v>-2.17881268582687e-10</v>
       </c>
       <c r="AR71" t="n">
-        <v>2.133984114149293</v>
+        <v>2.13955150368508</v>
       </c>
       <c r="AS71" t="n">
-        <v>4.04976835262682</v>
+        <v>4.06033386611836</v>
       </c>
       <c r="AT71" t="n">
         <v>0</v>
@@ -13246,7 +13246,7 @@
         <v>1.707506918288759</v>
       </c>
       <c r="AJ72" t="n">
-        <v>-16.16569477626804</v>
+        <v>-16.16569477207572</v>
       </c>
       <c r="AK72" t="n">
         <v>0</v>
@@ -13255,13 +13255,13 @@
         <v>27.59081438620854</v>
       </c>
       <c r="AM72" t="n">
-        <v>0.00306354591162907</v>
+        <v>0.003063545911632837</v>
       </c>
       <c r="AN72" t="n">
         <v>748.5483301521274</v>
       </c>
       <c r="AO72" t="n">
-        <v>373.615664983563</v>
+        <v>373.6156649835629</v>
       </c>
       <c r="AP72" t="n">
         <v>1378253.384357675</v>
@@ -13273,7 +13273,7 @@
         <v>2.360933335211653</v>
       </c>
       <c r="AS72" t="n">
-        <v>4.480461236897915</v>
+        <v>4.480461236897914</v>
       </c>
       <c r="AT72" t="n">
         <v>0</v>
@@ -13425,7 +13425,7 @@
         <v>1.886989225490095</v>
       </c>
       <c r="AJ73" t="n">
-        <v>-25.63707152988927</v>
+        <v>-25.63707153085618</v>
       </c>
       <c r="AK73" t="n">
         <v>0</v>
@@ -13437,10 +13437,10 @@
         <v>0</v>
       </c>
       <c r="AN73" t="n">
-        <v>311.6927617448392</v>
+        <v>311.6927617448389</v>
       </c>
       <c r="AO73" t="n">
-        <v>382.1145978108708</v>
+        <v>382.1145978108709</v>
       </c>
       <c r="AP73" t="n">
         <v>1483439.062332447</v>
@@ -13449,10 +13449,10 @@
         <v>-1.771582880394362e-10</v>
       </c>
       <c r="AR73" t="n">
-        <v>1.991733578808121</v>
+        <v>1.99173357880812</v>
       </c>
       <c r="AS73" t="n">
-        <v>3.779812399183112</v>
+        <v>3.77981239918311</v>
       </c>
       <c r="AT73" t="n">
         <v>0</v>
@@ -13604,7 +13604,7 @@
         <v>1.28647256565477</v>
       </c>
       <c r="AJ74" t="n">
-        <v>-7.513756752633508</v>
+        <v>-7.513756756202076</v>
       </c>
       <c r="AK74" t="n">
         <v>0</v>
@@ -13613,13 +13613,13 @@
         <v>27.34225607300222</v>
       </c>
       <c r="AM74" t="n">
-        <v>3.088999542612413e-14</v>
+        <v>0</v>
       </c>
       <c r="AN74" t="n">
-        <v>525.0421785764473</v>
+        <v>525.042178576447</v>
       </c>
       <c r="AO74" t="n">
-        <v>480.5299213748322</v>
+        <v>480.529921374832</v>
       </c>
       <c r="AP74" t="n">
         <v>2111375.173749702</v>
@@ -13631,7 +13631,7 @@
         <v>2.005835921240526</v>
       </c>
       <c r="AS74" t="n">
-        <v>3.806575119534208</v>
+        <v>3.806575119534207</v>
       </c>
       <c r="AT74" t="n">
         <v>0</v>
@@ -13783,34 +13783,34 @@
         <v>1.459341680506774</v>
       </c>
       <c r="AJ75" t="n">
-        <v>-10.02146077301925</v>
+        <v>-10.01324173692522</v>
       </c>
       <c r="AK75" t="n">
         <v>0</v>
       </c>
       <c r="AL75" t="n">
-        <v>27.15054647682613</v>
+        <v>27.15054296629367</v>
       </c>
       <c r="AM75" t="n">
-        <v>2.22244446036142e-14</v>
+        <v>0</v>
       </c>
       <c r="AN75" t="n">
-        <v>280.5600455525841</v>
+        <v>280.4642495498332</v>
       </c>
       <c r="AO75" t="n">
-        <v>472.3992636988235</v>
+        <v>472.2877271938762</v>
       </c>
       <c r="AP75" t="n">
         <v>2098071.428044324</v>
       </c>
       <c r="AQ75" t="n">
-        <v>-1.660449555629384e-10</v>
+        <v>-1.659117287999834e-10</v>
       </c>
       <c r="AR75" t="n">
-        <v>1.830742112208078</v>
+        <v>1.83066856849756</v>
       </c>
       <c r="AS75" t="n">
-        <v>3.47429084344288</v>
+        <v>3.474151275866244</v>
       </c>
       <c r="AT75" t="n">
         <v>0</v>
@@ -13962,34 +13962,34 @@
         <v>1.451807716809732</v>
       </c>
       <c r="AJ76" t="n">
-        <v>-7.926616864619738</v>
+        <v>-7.917289621922058</v>
       </c>
       <c r="AK76" t="n">
         <v>0</v>
       </c>
       <c r="AL76" t="n">
-        <v>27.45216128936444</v>
+        <v>27.45216128936443</v>
       </c>
       <c r="AM76" t="n">
-        <v>9.218592826797752e-14</v>
+        <v>1.064285450465541e-13</v>
       </c>
       <c r="AN76" t="n">
-        <v>670.806465355774</v>
+        <v>670.806465357351</v>
       </c>
       <c r="AO76" t="n">
-        <v>425.2635162721104</v>
+        <v>425.1353489560128</v>
       </c>
       <c r="AP76" t="n">
-        <v>1799384.074193659</v>
+        <v>1799384.07419366</v>
       </c>
       <c r="AQ76" t="n">
         <v>-3.390732139507691e-10</v>
       </c>
       <c r="AR76" t="n">
-        <v>2.207592977222865</v>
+        <v>2.207592977224274</v>
       </c>
       <c r="AS76" t="n">
-        <v>4.189459572524692</v>
+        <v>4.189459572527365</v>
       </c>
       <c r="AT76" t="n">
         <v>0</v>
@@ -14141,22 +14141,22 @@
         <v>1.560523743778205</v>
       </c>
       <c r="AJ77" t="n">
-        <v>-5.660511676256394</v>
+        <v>-5.649542544094208</v>
       </c>
       <c r="AK77" t="n">
         <v>0</v>
       </c>
       <c r="AL77" t="n">
-        <v>27.29509448802418</v>
+        <v>27.29509448802417</v>
       </c>
       <c r="AM77" t="n">
         <v>0</v>
       </c>
       <c r="AN77" t="n">
-        <v>762.7934490879539</v>
+        <v>762.7934490872013</v>
       </c>
       <c r="AO77" t="n">
-        <v>456.8759835964919</v>
+        <v>456.7478162806726</v>
       </c>
       <c r="AP77" t="n">
         <v>2031806.020347561</v>
@@ -14165,10 +14165,10 @@
         <v>-5.733302721466771e-10</v>
       </c>
       <c r="AR77" t="n">
-        <v>2.359514247365464</v>
+        <v>2.359514247364807</v>
       </c>
       <c r="AS77" t="n">
-        <v>4.47776816293781</v>
+        <v>4.477768162936562</v>
       </c>
       <c r="AT77" t="n">
         <v>0</v>
@@ -14320,7 +14320,7 @@
         <v>1.860925904759746</v>
       </c>
       <c r="AJ78" t="n">
-        <v>-8.649051790418497</v>
+        <v>-8.649051792150138</v>
       </c>
       <c r="AK78" t="n">
         <v>0</v>
@@ -14332,10 +14332,10 @@
         <v>0</v>
       </c>
       <c r="AN78" t="n">
-        <v>284.7093615873729</v>
+        <v>284.7093615873734</v>
       </c>
       <c r="AO78" t="n">
-        <v>470.886674226497</v>
+        <v>470.8866742264971</v>
       </c>
       <c r="AP78" t="n">
         <v>2075112.967753401</v>
@@ -14344,10 +14344,10 @@
         <v>-1.723954312637943e-10</v>
       </c>
       <c r="AR78" t="n">
-        <v>2.009220677044364</v>
+        <v>2.009220677044365</v>
       </c>
       <c r="AS78" t="n">
-        <v>3.812998539860942</v>
+        <v>3.812998539860943</v>
       </c>
       <c r="AT78" t="n">
         <v>0</v>
@@ -14499,7 +14499,7 @@
         <v>1.64649647013221</v>
       </c>
       <c r="AJ79" t="n">
-        <v>20.80103300336852</v>
+        <v>20.80103300336851</v>
       </c>
       <c r="AK79" t="n">
         <v>0</v>
@@ -14508,10 +14508,10 @@
         <v>27.87196521074823</v>
       </c>
       <c r="AM79" t="n">
-        <v>7.696626189683272e-14</v>
+        <v>1.999123685632019e-14</v>
       </c>
       <c r="AN79" t="n">
-        <v>755.8338622179476</v>
+        <v>755.8338622179472</v>
       </c>
       <c r="AO79" t="n">
         <v>417.7533854623816</v>
@@ -14678,7 +14678,7 @@
         <v>1.382724078558982</v>
       </c>
       <c r="AJ80" t="n">
-        <v>-13.93830832063302</v>
+        <v>-13.93830832146897</v>
       </c>
       <c r="AK80" t="n">
         <v>0</v>
@@ -14687,7 +14687,7 @@
         <v>28.547543688549</v>
       </c>
       <c r="AM80" t="n">
-        <v>1.552676632576731e-15</v>
+        <v>2.258438738293426e-15</v>
       </c>
       <c r="AN80" t="n">
         <v>385.4736168499815</v>
@@ -14705,7 +14705,7 @@
         <v>1.823993582642332</v>
       </c>
       <c r="AS80" t="n">
-        <v>3.461483821459486</v>
+        <v>3.461483821459485</v>
       </c>
       <c r="AT80" t="n">
         <v>0</v>
@@ -14857,7 +14857,7 @@
         <v>1.532810753984058</v>
       </c>
       <c r="AJ81" t="n">
-        <v>-19.98944816642834</v>
+        <v>-19.98944816754385</v>
       </c>
       <c r="AK81" t="n">
         <v>0</v>
@@ -14866,13 +14866,13 @@
         <v>28.14819891843342</v>
       </c>
       <c r="AM81" t="n">
-        <v>0</v>
+        <v>3.606418810194278e-15</v>
       </c>
       <c r="AN81" t="n">
-        <v>826.1547177846116</v>
+        <v>826.154717784612</v>
       </c>
       <c r="AO81" t="n">
-        <v>353.6508803385511</v>
+        <v>353.650880338551</v>
       </c>
       <c r="AP81" t="n">
         <v>1244369.612283793</v>
@@ -14884,7 +14884,7 @@
         <v>2.314927613171881</v>
       </c>
       <c r="AS81" t="n">
-        <v>4.393153877896936</v>
+        <v>4.393153877896937</v>
       </c>
       <c r="AT81" t="n">
         <v>0</v>
@@ -15036,34 +15036,34 @@
         <v>1.90054140345521</v>
       </c>
       <c r="AJ82" t="n">
-        <v>-7.68469724368673</v>
+        <v>-7.675678065996789</v>
       </c>
       <c r="AK82" t="n">
         <v>0</v>
       </c>
       <c r="AL82" t="n">
-        <v>28.74636073916192</v>
+        <v>28.74636073771925</v>
       </c>
       <c r="AM82" t="n">
-        <v>0</v>
+        <v>9.83630304860978e-14</v>
       </c>
       <c r="AN82" t="n">
-        <v>891.6311393879801</v>
+        <v>891.6311393259883</v>
       </c>
       <c r="AO82" t="n">
-        <v>424.5210436080317</v>
+        <v>424.3928762899727</v>
       </c>
       <c r="AP82" t="n">
         <v>1868728.342310633</v>
       </c>
       <c r="AQ82" t="n">
-        <v>-6.729505841462924e-10</v>
+        <v>-6.728395618438299e-10</v>
       </c>
       <c r="AR82" t="n">
-        <v>2.518074628136993</v>
+        <v>2.518074628192161</v>
       </c>
       <c r="AS82" t="n">
-        <v>4.778676125546979</v>
+        <v>4.778676125651673</v>
       </c>
       <c r="AT82" t="n">
         <v>0</v>
@@ -15215,7 +15215,7 @@
         <v>1.262888114010055</v>
       </c>
       <c r="AJ83" t="n">
-        <v>-11.94433687034742</v>
+        <v>-11.94433687034743</v>
       </c>
       <c r="AK83" t="n">
         <v>0</v>
@@ -15227,10 +15227,10 @@
         <v>0</v>
       </c>
       <c r="AN83" t="n">
-        <v>454.6396379831198</v>
+        <v>454.6396379831202</v>
       </c>
       <c r="AO83" t="n">
-        <v>441.6433539509172</v>
+        <v>441.6433539509173</v>
       </c>
       <c r="AP83" t="n">
         <v>1942405.675141613</v>
@@ -15394,7 +15394,7 @@
         <v>1.490251936925754</v>
       </c>
       <c r="AJ84" t="n">
-        <v>7.94999897843324</v>
+        <v>7.94999897843325</v>
       </c>
       <c r="AK84" t="n">
         <v>0</v>
@@ -15403,10 +15403,10 @@
         <v>28.48716290687313</v>
       </c>
       <c r="AM84" t="n">
-        <v>9.877107918405475e-15</v>
+        <v>7.312008250043455e-14</v>
       </c>
       <c r="AN84" t="n">
-        <v>856.671868879983</v>
+        <v>856.6718688799834</v>
       </c>
       <c r="AO84" t="n">
         <v>410.1023541559531</v>
@@ -15418,10 +15418,10 @@
         <v>-5.81623638140627e-10</v>
       </c>
       <c r="AR84" t="n">
-        <v>2.32723601940183</v>
+        <v>2.327236019401831</v>
       </c>
       <c r="AS84" t="n">
-        <v>4.416512155819824</v>
+        <v>4.416512155819825</v>
       </c>
       <c r="AT84" t="n">
         <v>0</v>
@@ -15582,7 +15582,7 @@
         <v>27.21292671361794</v>
       </c>
       <c r="AM85" t="n">
-        <v>5.738504121825292e-14</v>
+        <v>6.105994533567798e-14</v>
       </c>
       <c r="AN85" t="n">
         <v>420.3272943655488</v>
@@ -15752,7 +15752,7 @@
         <v>1.776622637092284</v>
       </c>
       <c r="AJ86" t="n">
-        <v>-5.816464526334729</v>
+        <v>-5.816464528113109</v>
       </c>
       <c r="AK86" t="n">
         <v>0</v>
@@ -15761,13 +15761,13 @@
         <v>28.69365279367728</v>
       </c>
       <c r="AM86" t="n">
-        <v>0</v>
+        <v>5.195332672098805e-14</v>
       </c>
       <c r="AN86" t="n">
-        <v>364.36901623316</v>
+        <v>364.3690162331605</v>
       </c>
       <c r="AO86" t="n">
-        <v>396.5612976210786</v>
+        <v>396.5612976210782</v>
       </c>
       <c r="AP86" t="n">
         <v>1605444.087622425</v>
@@ -15779,7 +15779,7 @@
         <v>1.950087215661884</v>
       </c>
       <c r="AS86" t="n">
-        <v>3.70077801352234</v>
+        <v>3.700778013522341</v>
       </c>
       <c r="AT86" t="n">
         <v>0</v>
@@ -15931,7 +15931,7 @@
         <v>2.002030717727872</v>
       </c>
       <c r="AJ87" t="n">
-        <v>2.572231010212304</v>
+        <v>2.572231011073875</v>
       </c>
       <c r="AK87" t="n">
         <v>0</v>
@@ -15946,7 +15946,7 @@
         <v>411.7338125864641</v>
       </c>
       <c r="AO87" t="n">
-        <v>433.3082461898657</v>
+        <v>433.3082461898658</v>
       </c>
       <c r="AP87" t="n">
         <v>1867765.315760908</v>
@@ -15955,10 +15955,10 @@
         <v>-1.932454196662547e-10</v>
       </c>
       <c r="AR87" t="n">
-        <v>2.085971348341504</v>
+        <v>2.085971348341505</v>
       </c>
       <c r="AS87" t="n">
-        <v>3.958652126315089</v>
+        <v>3.95865212631509</v>
       </c>
       <c r="AT87" t="n">
         <v>0</v>
@@ -16110,7 +16110,7 @@
         <v>1.252900913133367</v>
       </c>
       <c r="AJ88" t="n">
-        <v>4.535986173002449</v>
+        <v>4.53598617300243</v>
       </c>
       <c r="AK88" t="n">
         <v>0</v>
@@ -16122,10 +16122,10 @@
         <v>0</v>
       </c>
       <c r="AN88" t="n">
-        <v>343.5556622623533</v>
+        <v>343.5556622623537</v>
       </c>
       <c r="AO88" t="n">
-        <v>401.6759077264571</v>
+        <v>401.6759077264572</v>
       </c>
       <c r="AP88" t="n">
         <v>1494394.608658494</v>
@@ -16137,7 +16137,7 @@
         <v>1.727459175384569</v>
       </c>
       <c r="AS88" t="n">
-        <v>3.278285650086065</v>
+        <v>3.278285650086066</v>
       </c>
       <c r="AT88" t="n">
         <v>0</v>
@@ -16289,7 +16289,7 @@
         <v>1.617612743594987</v>
       </c>
       <c r="AJ89" t="n">
-        <v>-14.91842259705882</v>
+        <v>-14.91842259760051</v>
       </c>
       <c r="AK89" t="n">
         <v>0</v>
@@ -16304,7 +16304,7 @@
         <v>671.3841533522919</v>
       </c>
       <c r="AO89" t="n">
-        <v>364.8107251116269</v>
+        <v>364.810725111627</v>
       </c>
       <c r="AP89" t="n">
         <v>1276806.947586773</v>
@@ -16468,7 +16468,7 @@
         <v>2.07384189777494</v>
       </c>
       <c r="AJ90" t="n">
-        <v>15.17357164493275</v>
+        <v>15.17357164944363</v>
       </c>
       <c r="AK90" t="n">
         <v>0</v>
@@ -16477,13 +16477,13 @@
         <v>27.97945391466375</v>
       </c>
       <c r="AM90" t="n">
-        <v>5.836556943854806e-14</v>
+        <v>5.98461379556808e-14</v>
       </c>
       <c r="AN90" t="n">
         <v>739.7610825614126</v>
       </c>
       <c r="AO90" t="n">
-        <v>403.8993589772414</v>
+        <v>403.8993589772415</v>
       </c>
       <c r="AP90" t="n">
         <v>1719707.469979301</v>
@@ -16495,7 +16495,7 @@
         <v>2.50146497323476</v>
       </c>
       <c r="AS90" t="n">
-        <v>4.747155152956265</v>
+        <v>4.747155152956266</v>
       </c>
       <c r="AT90" t="n">
         <v>0</v>
@@ -16647,7 +16647,7 @@
         <v>2.036950915225108</v>
       </c>
       <c r="AJ91" t="n">
-        <v>-15.83980728972456</v>
+        <v>-15.83980728826332</v>
       </c>
       <c r="AK91" t="n">
         <v>0</v>
@@ -16662,7 +16662,7 @@
         <v>732.8852922597589</v>
       </c>
       <c r="AO91" t="n">
-        <v>358.499337736176</v>
+        <v>358.4993377361759</v>
       </c>
       <c r="AP91" t="n">
         <v>1429127.433381025</v>
@@ -16835,7 +16835,7 @@
         <v>28.30680337990157</v>
       </c>
       <c r="AM92" t="n">
-        <v>9.048963999630649e-15</v>
+        <v>1.246086845850778e-14</v>
       </c>
       <c r="AN92" t="n">
         <v>820.0563531458956</v>
@@ -16850,10 +16850,10 @@
         <v>-5.069278330438465e-10</v>
       </c>
       <c r="AR92" t="n">
-        <v>2.473698696296413</v>
+        <v>2.473698696296414</v>
       </c>
       <c r="AS92" t="n">
-        <v>4.694461700896516</v>
+        <v>4.694461700896518</v>
       </c>
       <c r="AT92" t="n">
         <v>0</v>
@@ -17005,7 +17005,7 @@
         <v>1.356432965414608</v>
       </c>
       <c r="AJ93" t="n">
-        <v>-24.1832959365942</v>
+        <v>-24.18329593659418</v>
       </c>
       <c r="AK93" t="n">
         <v>0</v>
@@ -17014,13 +17014,13 @@
         <v>28.22282913640322</v>
       </c>
       <c r="AM93" t="n">
-        <v>8.596554311228555e-14</v>
+        <v>4.662537931513792e-14</v>
       </c>
       <c r="AN93" t="n">
-        <v>461.837759126161</v>
+        <v>461.8377591261615</v>
       </c>
       <c r="AO93" t="n">
-        <v>422.6609141415769</v>
+        <v>422.6609141415767</v>
       </c>
       <c r="AP93" t="n">
         <v>1669915.491453346</v>
@@ -17029,10 +17029,10 @@
         <v>-2.602695836628754e-10</v>
       </c>
       <c r="AR93" t="n">
-        <v>1.887569447728378</v>
+        <v>1.887569447728379</v>
       </c>
       <c r="AS93" t="n">
-        <v>3.582134919426529</v>
+        <v>3.582134919426531</v>
       </c>
       <c r="AT93" t="n">
         <v>0</v>
@@ -17363,7 +17363,7 @@
         <v>1.979357444968328</v>
       </c>
       <c r="AJ95" t="n">
-        <v>-7.364866861560785</v>
+        <v>-7.364866861560797</v>
       </c>
       <c r="AK95" t="n">
         <v>0</v>
@@ -17378,7 +17378,7 @@
         <v>916.7995934137431</v>
       </c>
       <c r="AO95" t="n">
-        <v>451.7123657377135</v>
+        <v>451.7123657377136</v>
       </c>
       <c r="AP95" t="n">
         <v>2054946.64396813</v>
@@ -17542,7 +17542,7 @@
         <v>1.399065117653592</v>
       </c>
       <c r="AJ96" t="n">
-        <v>-1.142049160714806</v>
+        <v>-1.142049160714303</v>
       </c>
       <c r="AK96" t="n">
         <v>0</v>
@@ -17551,7 +17551,7 @@
         <v>26.78456545667958</v>
       </c>
       <c r="AM96" t="n">
-        <v>6.504480226191345e-14</v>
+        <v>6.80894525805562e-14</v>
       </c>
       <c r="AN96" t="n">
         <v>539.0175298852024</v>
@@ -17721,7 +17721,7 @@
         <v>1.326555802586802</v>
       </c>
       <c r="AJ97" t="n">
-        <v>-11.10775553228683</v>
+        <v>-11.1077555344252</v>
       </c>
       <c r="AK97" t="n">
         <v>0</v>
@@ -17900,7 +17900,7 @@
         <v>1.299919879149794</v>
       </c>
       <c r="AJ98" t="n">
-        <v>-8.484348193893814</v>
+        <v>-8.484348192851034</v>
       </c>
       <c r="AK98" t="n">
         <v>0</v>
@@ -17909,13 +17909,13 @@
         <v>28.23926803326664</v>
       </c>
       <c r="AM98" t="n">
-        <v>1.281831117047145e-13</v>
+        <v>8.705569633878241e-14</v>
       </c>
       <c r="AN98" t="n">
-        <v>711.8343028971069</v>
+        <v>711.8343028971072</v>
       </c>
       <c r="AO98" t="n">
-        <v>410.3255179775194</v>
+        <v>410.3255179775193</v>
       </c>
       <c r="AP98" t="n">
         <v>1540297.64232953</v>
@@ -18079,34 +18079,34 @@
         <v>1.800647510722467</v>
       </c>
       <c r="AJ99" t="n">
-        <v>3.665875221628372</v>
+        <v>3.675207328653419</v>
       </c>
       <c r="AK99" t="n">
         <v>0</v>
       </c>
       <c r="AL99" t="n">
-        <v>28.20378756480224</v>
+        <v>28.20378756480223</v>
       </c>
       <c r="AM99" t="n">
-        <v>0</v>
+        <v>1.093239370552942e-13</v>
       </c>
       <c r="AN99" t="n">
-        <v>846.2149931157277</v>
+        <v>846.2149931157531</v>
       </c>
       <c r="AO99" t="n">
-        <v>462.2905447778783</v>
+        <v>462.1623774619515</v>
       </c>
       <c r="AP99" t="n">
-        <v>1933311.53004506</v>
+        <v>1933311.530045059</v>
       </c>
       <c r="AQ99" t="n">
-        <v>-6.300848731655151e-10</v>
+        <v>-6.300737709352688e-10</v>
       </c>
       <c r="AR99" t="n">
-        <v>2.476791397859052</v>
+        <v>2.476791397859085</v>
       </c>
       <c r="AS99" t="n">
-        <v>4.700330875287016</v>
+        <v>4.700330875287078</v>
       </c>
       <c r="AT99" t="n">
         <v>0</v>
@@ -18258,7 +18258,7 @@
         <v>1.307997880087819</v>
       </c>
       <c r="AJ100" t="n">
-        <v>22.29374719973038</v>
+        <v>22.2937472007916</v>
       </c>
       <c r="AK100" t="n">
         <v>0</v>
@@ -18267,13 +18267,13 @@
         <v>27.40522170365406</v>
       </c>
       <c r="AM100" t="n">
-        <v>0</v>
+        <v>1.49519311472391e-14</v>
       </c>
       <c r="AN100" t="n">
-        <v>295.4972160317104</v>
+        <v>295.4972160317111</v>
       </c>
       <c r="AO100" t="n">
-        <v>414.9408067908288</v>
+        <v>414.9408067908289</v>
       </c>
       <c r="AP100" t="n">
         <v>1670360.220365713</v>
@@ -18282,10 +18282,10 @@
         <v>-1.603273069861189e-10</v>
       </c>
       <c r="AR100" t="n">
-        <v>1.756078863235283</v>
+        <v>1.756078863235284</v>
       </c>
       <c r="AS100" t="n">
-        <v>3.332598662704758</v>
+        <v>3.332598662704759</v>
       </c>
       <c r="AT100" t="n">
         <v>0</v>
@@ -18446,10 +18446,10 @@
         <v>26.50278647163092</v>
       </c>
       <c r="AM101" t="n">
-        <v>4.570681379786141e-15</v>
+        <v>0</v>
       </c>
       <c r="AN101" t="n">
-        <v>210.6391954615843</v>
+        <v>210.639195461584</v>
       </c>
       <c r="AO101" t="n">
         <v>427.8206667815039</v>
@@ -18461,10 +18461,10 @@
         <v>-1.542987959624043e-10</v>
       </c>
       <c r="AR101" t="n">
-        <v>1.904730626964989</v>
+        <v>1.904730626964988</v>
       </c>
       <c r="AS101" t="n">
-        <v>3.614702547322807</v>
+        <v>3.614702547322806</v>
       </c>
       <c r="AT101" t="n">
         <v>0</v>
@@ -18616,7 +18616,7 @@
         <v>2.031089981663913</v>
       </c>
       <c r="AJ102" t="n">
-        <v>-2.00128630111532</v>
+        <v>-2.001286307935837</v>
       </c>
       <c r="AK102" t="n">
         <v>0</v>
@@ -18625,10 +18625,10 @@
         <v>28.20047531440271</v>
       </c>
       <c r="AM102" t="n">
-        <v>0</v>
+        <v>1.500297274210331e-15</v>
       </c>
       <c r="AN102" t="n">
-        <v>335.6999322733457</v>
+        <v>335.6999322733454</v>
       </c>
       <c r="AO102" t="n">
         <v>371.4774964455186</v>
@@ -18643,7 +18643,7 @@
         <v>2.047196319919907</v>
       </c>
       <c r="AS102" t="n">
-        <v>3.885066816128004</v>
+        <v>3.885066816128002</v>
       </c>
       <c r="AT102" t="n">
         <v>0</v>
@@ -18795,7 +18795,7 @@
         <v>1.957226342404973</v>
       </c>
       <c r="AJ103" t="n">
-        <v>-24.09320172171659</v>
+        <v>-24.09320171982582</v>
       </c>
       <c r="AK103" t="n">
         <v>0</v>
@@ -18804,13 +18804,13 @@
         <v>27.54546576408982</v>
       </c>
       <c r="AM103" t="n">
-        <v>2.051152645650397e-14</v>
+        <v>1.523713393911723e-14</v>
       </c>
       <c r="AN103" t="n">
         <v>748.6751442363745</v>
       </c>
       <c r="AO103" t="n">
-        <v>418.2970136689858</v>
+        <v>418.297013668986</v>
       </c>
       <c r="AP103" t="n">
         <v>1711988.044864474</v>
@@ -18822,7 +18822,7 @@
         <v>2.491876918487892</v>
       </c>
       <c r="AS103" t="n">
-        <v>4.728959422060396</v>
+        <v>4.728959422060397</v>
       </c>
       <c r="AT103" t="n">
         <v>0</v>
